--- a/GS_Warriors.xlsx
+++ b/GS_Warriors.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="18">
   <si>
     <t>Tiros libres metidos</t>
   </si>
@@ -77,13 +77,37 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="19">
+  <fonts count="23">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -224,7 +248,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
@@ -262,13 +286,21 @@
     <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -475,58 +507,108 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="6">
+      <c r="A5" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B5" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>69.44444444444444</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="22">
         <v>17</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="B6" t="n" s="6">
-        <v>4.0</v>
-      </c>
-      <c r="C6" t="n" s="6">
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="D6" t="n" s="6">
-        <v>2.6666666666666665</v>
-      </c>
-      <c r="E6" t="n" s="6">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="F6" t="n" s="6">
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="G6" t="n" s="6">
-        <v>2.6666666666666665</v>
-      </c>
-      <c r="H6" t="n" s="6">
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="I6" t="n" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="J6" t="n" s="6">
-        <v>4.333333333333333</v>
-      </c>
-      <c r="K6" t="n" s="6">
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="L6" t="n" s="6">
-        <v>4.0</v>
-      </c>
-      <c r="M6" t="n" s="6">
-        <v>6.666666666666667</v>
-      </c>
-      <c r="N6" t="n" s="6">
-        <v>51.85185185185185</v>
-      </c>
-      <c r="O6" t="n" s="6">
-        <v>56.01851851851851</v>
-      </c>
-      <c r="P6" t="n" s="6">
-        <v>60.23312513697129</v>
+    <row r="7">
+      <c r="A7" t="n" s="22">
+        <v>2.25</v>
+      </c>
+      <c r="B7" t="n" s="22">
+        <v>4.25</v>
+      </c>
+      <c r="C7" t="n" s="22">
+        <v>1.75</v>
+      </c>
+      <c r="D7" t="n" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="E7" t="n" s="22">
+        <v>0.75</v>
+      </c>
+      <c r="F7" t="n" s="22">
+        <v>1.5</v>
+      </c>
+      <c r="G7" t="n" s="22">
+        <v>2.75</v>
+      </c>
+      <c r="H7" t="n" s="22">
+        <v>3.25</v>
+      </c>
+      <c r="I7" t="n" s="22">
+        <v>2.75</v>
+      </c>
+      <c r="J7" t="n" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="K7" t="n" s="22">
+        <v>2.25</v>
+      </c>
+      <c r="L7" t="n" s="22">
+        <v>3.75</v>
+      </c>
+      <c r="M7" t="n" s="22">
+        <v>7.25</v>
+      </c>
+      <c r="N7" t="n" s="22">
+        <v>53.888888888888886</v>
+      </c>
+      <c r="O7" t="n" s="22">
+        <v>58.263888888888886</v>
+      </c>
+      <c r="P7" t="n" s="22">
+        <v>62.53595496383957</v>
       </c>
     </row>
   </sheetData>
@@ -536,7 +618,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -643,58 +725,108 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="8">
+      <c r="A3" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B3" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>69.44444444444444</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="20">
         <v>17</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n" s="8">
-        <v>3.0</v>
-      </c>
-      <c r="B4" t="n" s="8">
-        <v>4.0</v>
-      </c>
-      <c r="C4" t="n" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="D4" t="n" s="8">
-        <v>5.0</v>
-      </c>
-      <c r="E4" t="n" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="F4" t="n" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="G4" t="n" s="8">
-        <v>5.0</v>
-      </c>
-      <c r="H4" t="n" s="8">
-        <v>3.0</v>
-      </c>
-      <c r="I4" t="n" s="8">
-        <v>3.0</v>
-      </c>
-      <c r="J4" t="n" s="8">
-        <v>4.0</v>
-      </c>
-      <c r="K4" t="n" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="L4" t="n" s="8">
-        <v>4.0</v>
-      </c>
-      <c r="M4" t="n" s="8">
-        <v>7.0</v>
-      </c>
-      <c r="N4" t="n" s="8">
-        <v>55.55555555555556</v>
-      </c>
-      <c r="O4" t="n" s="8">
-        <v>55.55555555555556</v>
-      </c>
-      <c r="P4" t="n" s="8">
-        <v>51.77514792899408</v>
+    <row r="5">
+      <c r="A5" t="n" s="20">
+        <v>3.0</v>
+      </c>
+      <c r="B5" t="n" s="20">
+        <v>4.5</v>
+      </c>
+      <c r="C5" t="n" s="20">
+        <v>2.0</v>
+      </c>
+      <c r="D5" t="n" s="20">
+        <v>4.5</v>
+      </c>
+      <c r="E5" t="n" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="F5" t="n" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="G5" t="n" s="20">
+        <v>4.0</v>
+      </c>
+      <c r="H5" t="n" s="20">
+        <v>2.5</v>
+      </c>
+      <c r="I5" t="n" s="20">
+        <v>2.5</v>
+      </c>
+      <c r="J5" t="n" s="20">
+        <v>3.5</v>
+      </c>
+      <c r="K5" t="n" s="20">
+        <v>1.5</v>
+      </c>
+      <c r="L5" t="n" s="20">
+        <v>3.5</v>
+      </c>
+      <c r="M5" t="n" s="20">
+        <v>8.0</v>
+      </c>
+      <c r="N5" t="n" s="20">
+        <v>57.77777777777778</v>
+      </c>
+      <c r="O5" t="n" s="20">
+        <v>60.27777777777778</v>
+      </c>
+      <c r="P5" t="n" s="20">
+        <v>60.609796186719265</v>
       </c>
     </row>
   </sheetData>
